--- a/xbde.xlsx
+++ b/xbde.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="17745" activeTab="1"/>
+    <workbookView windowWidth="19515" windowHeight="17745"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="814">
   <si>
     <t>Xenoblade Definitive Edition（ゼノブレイド　ディフィニティブ・エディション）v1.1.2
-TID：0100ff500e34a000
+TID：0100FF500E34A000
 BID：92c78bb3dcbbc3f7
 By露易娘</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>连锁</t>
     </r>
     <r>
@@ -270,12 +264,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
       <t>默</t>
     </r>
     <r>
@@ -7196,6 +7184,38 @@
     <t>28F3D87C</t>
   </si>
   <si>
+    <r>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+  </si>
+  <si>
     <t>28F3D880</t>
   </si>
   <si>
@@ -8139,7 +8159,27 @@
     </r>
   </si>
   <si>
-    <t>[1P技能无冷却]</t>
+    <r>
+      <t>[1P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技无冷却]</t>
+    </r>
   </si>
   <si>
     <t>技能1 冷却上限</t>
@@ -8492,9 +8532,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -8536,40 +8576,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8587,14 +8610,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8627,25 +8642,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8657,24 +8705,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8693,6 +8733,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -8733,12 +8779,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8804,24 +8844,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8880,6 +8902,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -8887,21 +8927,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8929,6 +8954,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8946,11 +8986,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8960,15 +8998,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8987,16 +9016,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9005,133 +9045,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9541,7 +9581,7 @@
   <sheetPr/>
   <dimension ref="A1:I424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
@@ -16563,13 +16603,13 @@
       <c r="A374" s="13"/>
       <c r="B374" s="14"/>
       <c r="C374" s="6" t="s">
-        <v>22</v>
+        <v>675</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F374" s="6" t="s">
         <v>4</v>
@@ -16585,7 +16625,7 @@
         <v>2</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F375" s="6" t="s">
         <v>4</v>
@@ -16601,7 +16641,7 @@
         <v>2</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F376" s="6" t="s">
         <v>4</v>
@@ -16617,7 +16657,7 @@
         <v>2</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F377" s="6" t="s">
         <v>31</v>
@@ -16633,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F378" s="6" t="s">
         <v>4</v>
@@ -16649,7 +16689,7 @@
         <v>2</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F379" s="6" t="s">
         <v>31</v>
@@ -16665,7 +16705,7 @@
         <v>2</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F380" s="6" t="s">
         <v>31</v>
@@ -16681,7 +16721,7 @@
         <v>2</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F381" s="6" t="s">
         <v>31</v>
@@ -16697,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F382" s="6" t="s">
         <v>31</v>
@@ -16713,7 +16753,7 @@
         <v>2</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F383" s="6" t="s">
         <v>4</v>
@@ -16729,7 +16769,7 @@
         <v>2</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F384" s="6" t="s">
         <v>4</v>
@@ -16745,7 +16785,7 @@
         <v>2</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F385" s="6" t="s">
         <v>4</v>
@@ -16761,7 +16801,7 @@
         <v>2</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F386" s="6" t="s">
         <v>4</v>
@@ -16777,7 +16817,7 @@
         <v>2</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F387" s="6" t="s">
         <v>4</v>
@@ -16793,7 +16833,7 @@
         <v>2</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F388" s="6" t="s">
         <v>4</v>
@@ -16809,7 +16849,7 @@
         <v>2</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F389" s="6" t="s">
         <v>4</v>
@@ -16825,7 +16865,7 @@
         <v>2</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F390" s="6" t="s">
         <v>4</v>
@@ -16841,7 +16881,7 @@
         <v>2</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F391" s="6" t="s">
         <v>4</v>
@@ -16857,7 +16897,7 @@
         <v>2</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F392" s="6" t="s">
         <v>4</v>
@@ -16867,13 +16907,13 @@
       <c r="A393" s="13"/>
       <c r="B393" s="14"/>
       <c r="C393" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F393" s="6" t="s">
         <v>66</v>
@@ -16887,13 +16927,13 @@
       <c r="A394" s="13"/>
       <c r="B394" s="14"/>
       <c r="C394" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F394" s="6" t="s">
         <v>66</v>
@@ -16909,13 +16949,13 @@
       <c r="A395" s="13"/>
       <c r="B395" s="14"/>
       <c r="C395" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F395" s="6" t="s">
         <v>66</v>
@@ -16929,13 +16969,13 @@
       <c r="A396" s="13"/>
       <c r="B396" s="14"/>
       <c r="C396" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F396" s="6" t="s">
         <v>66</v>
@@ -16951,13 +16991,13 @@
       <c r="A397" s="13"/>
       <c r="B397" s="14"/>
       <c r="C397" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F397" s="6" t="s">
         <v>66</v>
@@ -16971,13 +17011,13 @@
       <c r="A398" s="13"/>
       <c r="B398" s="14"/>
       <c r="C398" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F398" s="6" t="s">
         <v>66</v>
@@ -16993,13 +17033,13 @@
       <c r="A399" s="13"/>
       <c r="B399" s="14"/>
       <c r="C399" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F399" s="6" t="s">
         <v>66</v>
@@ -17013,13 +17053,13 @@
       <c r="A400" s="13"/>
       <c r="B400" s="14"/>
       <c r="C400" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>66</v>
@@ -17035,13 +17075,13 @@
       <c r="A401" s="13"/>
       <c r="B401" s="14"/>
       <c r="C401" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F401" s="6" t="s">
         <v>66</v>
@@ -17055,13 +17095,13 @@
       <c r="A402" s="13"/>
       <c r="B402" s="14"/>
       <c r="C402" s="6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F402" s="6" t="s">
         <v>66</v>
@@ -17077,13 +17117,13 @@
       <c r="A403" s="13"/>
       <c r="B403" s="14"/>
       <c r="C403" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F403" s="6" t="s">
         <v>66</v>
@@ -17097,13 +17137,13 @@
       <c r="A404" s="13"/>
       <c r="B404" s="14"/>
       <c r="C404" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F404" s="6" t="s">
         <v>66</v>
@@ -17119,13 +17159,13 @@
       <c r="A405" s="13"/>
       <c r="B405" s="14"/>
       <c r="C405" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>66</v>
@@ -17139,13 +17179,13 @@
       <c r="A406" s="13"/>
       <c r="B406" s="14"/>
       <c r="C406" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F406" s="6" t="s">
         <v>66</v>
@@ -17161,13 +17201,13 @@
       <c r="A407" s="13"/>
       <c r="B407" s="14"/>
       <c r="C407" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F407" s="6" t="s">
         <v>66</v>
@@ -17181,13 +17221,13 @@
       <c r="A408" s="13"/>
       <c r="B408" s="14"/>
       <c r="C408" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F408" s="6" t="s">
         <v>66</v>
@@ -17203,13 +17243,13 @@
       <c r="A409" s="13"/>
       <c r="B409" s="14"/>
       <c r="C409" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F409" s="6" t="s">
         <v>66</v>
@@ -17223,13 +17263,13 @@
       <c r="A410" s="13"/>
       <c r="B410" s="14"/>
       <c r="C410" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F410" s="6" t="s">
         <v>66</v>
@@ -17245,13 +17285,13 @@
       <c r="A411" s="13"/>
       <c r="B411" s="14"/>
       <c r="C411" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F411" s="6" t="s">
         <v>66</v>
@@ -17265,13 +17305,13 @@
       <c r="A412" s="13"/>
       <c r="B412" s="14"/>
       <c r="C412" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>66</v>
@@ -17287,13 +17327,13 @@
       <c r="A413" s="13"/>
       <c r="B413" s="14"/>
       <c r="C413" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F413" s="6" t="s">
         <v>66</v>
@@ -17307,13 +17347,13 @@
       <c r="A414" s="13"/>
       <c r="B414" s="14"/>
       <c r="C414" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F414" s="6" t="s">
         <v>66</v>
@@ -17329,13 +17369,13 @@
       <c r="A415" s="13"/>
       <c r="B415" s="14"/>
       <c r="C415" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F415" s="6" t="s">
         <v>66</v>
@@ -17349,13 +17389,13 @@
       <c r="A416" s="13"/>
       <c r="B416" s="14"/>
       <c r="C416" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F416" s="6" t="s">
         <v>66</v>
@@ -17371,13 +17411,13 @@
       <c r="A417" s="13"/>
       <c r="B417" s="14"/>
       <c r="C417" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F417" s="6" t="s">
         <v>66</v>
@@ -17391,13 +17431,13 @@
       <c r="A418" s="13"/>
       <c r="B418" s="14"/>
       <c r="C418" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F418" s="6" t="s">
         <v>66</v>
@@ -17419,7 +17459,7 @@
         <v>2</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F419" s="6" t="s">
         <v>66</v>
@@ -17439,7 +17479,7 @@
         <v>2</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F420" s="6" t="s">
         <v>66</v>
@@ -17455,13 +17495,13 @@
       <c r="A421" s="13"/>
       <c r="B421" s="14"/>
       <c r="C421" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F421" s="6" t="s">
         <v>66</v>
@@ -17475,13 +17515,13 @@
       <c r="A422" s="13"/>
       <c r="B422" s="14"/>
       <c r="C422" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F422" s="6" t="s">
         <v>66</v>
@@ -17497,13 +17537,13 @@
       <c r="A423" s="13"/>
       <c r="B423" s="14"/>
       <c r="C423" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F423" s="6" t="s">
         <v>66</v>
@@ -17517,13 +17557,13 @@
       <c r="A424" s="13"/>
       <c r="B424" s="14"/>
       <c r="C424" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F424" s="6" t="s">
         <v>66</v>
@@ -17565,8 +17605,8 @@
   <sheetPr/>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -17584,321 +17624,321 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C3" s="1">
         <v>308</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C5" s="1">
         <v>388</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C7" s="1">
         <v>408</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C9" s="1">
         <v>488</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C11" s="1">
         <v>508</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C13" s="1">
         <v>588</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C15" s="1">
         <v>608</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -17906,14 +17946,14 @@
     <row r="25" spans="1:8">
       <c r="A25" s="5"/>
       <c r="F25" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -17923,7 +17963,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="F27" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -17933,7 +17973,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="F28" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -17942,7 +17982,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="F29" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -17951,7 +17991,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="F30" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G30" s="2"/>
     </row>
@@ -17960,7 +18000,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="F31" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -17968,7 +18008,7 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="F32" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -17976,7 +18016,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="F33" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -17984,112 +18024,112 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="F34" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="F35" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="F36" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="F37" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="F38" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="F39" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="F40" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="F41" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="F42" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="F43" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="F44" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="F45" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="F46" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="F47" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="F48" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="F49" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="50" spans="1:2">
